--- a/Expenses/Expenses.xlsx
+++ b/Expenses/Expenses.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E0C2F5-5051-4E85-850A-B12938A72B8C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00319E86-9396-4512-A52E-FF0FA464215E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="83">
   <si>
     <t>Description</t>
   </si>
@@ -358,6 +363,12 @@
     <t>For Competition
 Dated on 3/Mar/2019</t>
   </si>
+  <si>
+    <t>Nanda's Team</t>
+  </si>
+  <si>
+    <t>Karthik's Team</t>
+  </si>
 </sst>
 </file>
 
@@ -934,7 +945,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1226,6 +1237,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1507,10 +1521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M21"/>
+  <dimension ref="B1:M24"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2171,6 +2185,52 @@
       <c r="K21" s="35">
         <f t="shared" si="3"/>
         <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D23" s="35">
+        <f>SUM(D3:D12)+1122/7</f>
+        <v>640.41071428571422</v>
+      </c>
+      <c r="E23" s="35">
+        <f t="shared" ref="E23:J23" si="5">SUM(E3:E12)+1122/7</f>
+        <v>743.26071428571436</v>
+      </c>
+      <c r="F23" s="35">
+        <f t="shared" si="5"/>
+        <v>627.03571428571422</v>
+      </c>
+      <c r="G23" s="35">
+        <f t="shared" si="5"/>
+        <v>581.51071428571436</v>
+      </c>
+      <c r="H23" s="35">
+        <f t="shared" si="5"/>
+        <v>549.96071428571418</v>
+      </c>
+      <c r="I23" s="35">
+        <f t="shared" si="5"/>
+        <v>548.66071428571422</v>
+      </c>
+      <c r="J23" s="35">
+        <f t="shared" si="5"/>
+        <v>528.71071428571429</v>
+      </c>
+      <c r="K23" s="35">
+        <f>SUM(D23:J23)</f>
+        <v>4219.55</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35">
+        <f>J23+H23+I23</f>
+        <v>1627.3321428571426</v>
       </c>
     </row>
   </sheetData>
@@ -2192,9 +2252,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BD2262-9844-4918-AA6C-069F0CE6A4C0}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="89" zoomScaleNormal="81" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="89" zoomScaleNormal="81" workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -2212,8 +2272,8 @@
     <col min="10" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
         <v>59</v>
       </c>
@@ -2224,7 +2284,7 @@
       <c r="F2" s="91"/>
       <c r="G2" s="92"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="82"/>
       <c r="B3" s="93"/>
       <c r="C3" s="93"/>
@@ -2233,7 +2293,7 @@
       <c r="F3" s="93"/>
       <c r="G3" s="94"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="82"/>
       <c r="B4" s="93"/>
       <c r="C4" s="93"/>
@@ -2242,7 +2302,7 @@
       <c r="F4" s="93"/>
       <c r="G4" s="94"/>
     </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="95"/>
       <c r="B5" s="96"/>
       <c r="C5" s="96"/>
@@ -2251,7 +2311,7 @@
       <c r="F5" s="96"/>
       <c r="G5" s="97"/>
     </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="59"/>
       <c r="B6" s="61"/>
       <c r="C6" s="61"/>
@@ -2260,7 +2320,7 @@
       <c r="F6" s="62"/>
       <c r="G6" s="63"/>
     </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="46" t="s">
         <v>22</v>
       </c>
@@ -2279,7 +2339,7 @@
       <c r="F7" s="48"/>
       <c r="G7" s="49"/>
     </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="53" t="s">
         <v>27</v>
       </c>
@@ -2296,7 +2356,7 @@
       <c r="F8" s="54"/>
       <c r="G8" s="51"/>
     </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="59"/>
       <c r="B9" s="60"/>
       <c r="C9" s="60"/>
@@ -2305,7 +2365,7 @@
       <c r="F9" s="62"/>
       <c r="G9" s="52"/>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" s="1" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="55" t="s">
         <v>19</v>
       </c>
@@ -2330,8 +2390,14 @@
       <c r="I10" s="38" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="73">
         <v>1</v>
       </c>
@@ -2357,8 +2423,20 @@
       <c r="I11" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N11" s="98">
+        <f>F12-9000+F13+F17+F22+F26+1152</f>
+        <v>8522</v>
+      </c>
+      <c r="O11" s="37">
+        <f>F11-12000+F14+F15+F18+F20+F21+F23+F24+756</f>
+        <v>14355</v>
+      </c>
+      <c r="Q11" s="37">
+        <f>O11+N11</f>
+        <v>22877</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="42">
         <v>2</v>
       </c>
@@ -2385,11 +2463,17 @@
         <v>72</v>
       </c>
       <c r="L12" s="37">
-        <f>F15+F19+F21+F23+F24+750-850</f>
-        <v>7075</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <f>F15+F19+F21+F23+F24+750-850+F11/4</f>
+        <v>11564.25</v>
+      </c>
+      <c r="N12" s="98">
+        <v>1627</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>4220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="42">
         <v>3</v>
       </c>
@@ -2414,8 +2498,16 @@
       <c r="I13" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N13" s="37">
+        <f>N12+N11</f>
+        <v>10149</v>
+      </c>
+      <c r="Q13" s="37">
+        <f>Q12+Q11</f>
+        <v>27097</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="42">
         <v>4</v>
       </c>
@@ -2441,7 +2533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="42">
         <v>5</v>
       </c>
@@ -2467,7 +2559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="42">
         <v>6</v>
       </c>
